--- a/example.xlsx
+++ b/example.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nika\PycharmProjects\CISC4900-Project\excel_package\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512"/>
+    <workbookView xWindow="285" yWindow="90" windowWidth="9540" windowHeight="4515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="126">
   <si>
     <t>Apples</t>
   </si>
@@ -34,13 +39,377 @@
   </si>
   <si>
     <t>Strawberries</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phyla</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>p__Acidobacteria</t>
+  </si>
+  <si>
+    <t>c__Acidobacteriia</t>
+  </si>
+  <si>
+    <t>o__Acidobacteriales</t>
+  </si>
+  <si>
+    <t>f__Acidobacteriaceae</t>
+  </si>
+  <si>
+    <t>g__</t>
+  </si>
+  <si>
+    <t>p__Proteobacteria</t>
+  </si>
+  <si>
+    <t>c__Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t>o__Xanthomonadales</t>
+  </si>
+  <si>
+    <t>f__Sinobacteraceae</t>
+  </si>
+  <si>
+    <t>g__Nevskia</t>
+  </si>
+  <si>
+    <t>c__Alphaproteobacteria</t>
+  </si>
+  <si>
+    <t>o__Sphingomonadales</t>
+  </si>
+  <si>
+    <t>f__Sphingomonadaceae</t>
+  </si>
+  <si>
+    <t>g__Sphingomonas</t>
+  </si>
+  <si>
+    <t>o__Pseudomonadales</t>
+  </si>
+  <si>
+    <t>f__Moraxellaceae</t>
+  </si>
+  <si>
+    <t>g__Acinetobacter</t>
+  </si>
+  <si>
+    <t>o__Rhizobiales</t>
+  </si>
+  <si>
+    <t>f__Phyllobacteriaceae</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>c__Betaproteobacteria</t>
+  </si>
+  <si>
+    <t>o__Burkholderiales</t>
+  </si>
+  <si>
+    <t>f__Burkholderiaceae</t>
+  </si>
+  <si>
+    <t>p__Cyanobacteria</t>
+  </si>
+  <si>
+    <t>c__Synechococcophycideae</t>
+  </si>
+  <si>
+    <t>o__Pseudanabaenales</t>
+  </si>
+  <si>
+    <t>f__Pseudanabaenaceae</t>
+  </si>
+  <si>
+    <t>o__Rhodospirillales</t>
+  </si>
+  <si>
+    <t>f__Acetobacteraceae</t>
+  </si>
+  <si>
+    <t>o__Enterobacteriales</t>
+  </si>
+  <si>
+    <t>f__Enterobacteriaceae</t>
+  </si>
+  <si>
+    <t>p__Bacteroidetes</t>
+  </si>
+  <si>
+    <t>c__Cytophagia</t>
+  </si>
+  <si>
+    <t>o__Cytophagales</t>
+  </si>
+  <si>
+    <t>f__Cytophagaceae</t>
+  </si>
+  <si>
+    <t>g__Hymenobacter</t>
+  </si>
+  <si>
+    <t>f__Oxalobacteraceae</t>
+  </si>
+  <si>
+    <t>f__Pseudomonadaceae</t>
+  </si>
+  <si>
+    <t>g__Pseudomonas</t>
+  </si>
+  <si>
+    <t>p__[Thermi]</t>
+  </si>
+  <si>
+    <t>c__Deinococci</t>
+  </si>
+  <si>
+    <t>o__Deinococcales</t>
+  </si>
+  <si>
+    <t>f__Deinococcaceae</t>
+  </si>
+  <si>
+    <t>g__Deinococcus</t>
+  </si>
+  <si>
+    <t>p__Firmicutes</t>
+  </si>
+  <si>
+    <t>c__Bacilli</t>
+  </si>
+  <si>
+    <t>o__Bacillales</t>
+  </si>
+  <si>
+    <t>f__Staphylococcaceae</t>
+  </si>
+  <si>
+    <t>g__Staphylococcus</t>
+  </si>
+  <si>
+    <t>o__Lactobacillales</t>
+  </si>
+  <si>
+    <t>f__Leuconostocaceae</t>
+  </si>
+  <si>
+    <t>g__Leuconostoc</t>
+  </si>
+  <si>
+    <t>p__Actinobacteria</t>
+  </si>
+  <si>
+    <t>c__Actinobacteria</t>
+  </si>
+  <si>
+    <t>o__Actinomycetales</t>
+  </si>
+  <si>
+    <t>f__Geodermatophilaceae</t>
+  </si>
+  <si>
+    <t>c__Oscillatoriophycideae</t>
+  </si>
+  <si>
+    <t>o__Oscillatoriales</t>
+  </si>
+  <si>
+    <t>f__Phormidiaceae</t>
+  </si>
+  <si>
+    <t>f__Corynebacteriaceae</t>
+  </si>
+  <si>
+    <t>g__Corynebacterium</t>
+  </si>
+  <si>
+    <t>f__Rhodospirillaceae</t>
+  </si>
+  <si>
+    <t>g__Skermanella</t>
+  </si>
+  <si>
+    <t>f__Nocardioidaceae</t>
+  </si>
+  <si>
+    <t>g__Friedmanniella</t>
+  </si>
+  <si>
+    <t>g__Modestobacter</t>
+  </si>
+  <si>
+    <t>f__Streptococcaceae</t>
+  </si>
+  <si>
+    <t>g__Streptococcus</t>
+  </si>
+  <si>
+    <t>f__</t>
+  </si>
+  <si>
+    <t>c__Bacteroidia</t>
+  </si>
+  <si>
+    <t>o__Bacteroidales</t>
+  </si>
+  <si>
+    <t>f__Prevotellaceae</t>
+  </si>
+  <si>
+    <t>g__Prevotella</t>
+  </si>
+  <si>
+    <t>f__Propionibacteriaceae</t>
+  </si>
+  <si>
+    <t>g__Propionibacterium</t>
+  </si>
+  <si>
+    <t>p__Chloroflexi</t>
+  </si>
+  <si>
+    <t>c__Anaerolineae</t>
+  </si>
+  <si>
+    <t>o__SBR1031</t>
+  </si>
+  <si>
+    <t>f__A4b</t>
+  </si>
+  <si>
+    <t>f__Lactobacillaceae</t>
+  </si>
+  <si>
+    <t>g__Lactobacillus</t>
+  </si>
+  <si>
+    <t>f__Bacteroidaceae</t>
+  </si>
+  <si>
+    <t>g__Bacteroides</t>
+  </si>
+  <si>
+    <t>g__Enhydrobacter</t>
+  </si>
+  <si>
+    <t>o__Rhodobacterales</t>
+  </si>
+  <si>
+    <t>f__Rhodobacteraceae</t>
+  </si>
+  <si>
+    <t>g__Paracoccus</t>
+  </si>
+  <si>
+    <t>f__Comamonadaceae</t>
+  </si>
+  <si>
+    <t>c__[Saprospirae]</t>
+  </si>
+  <si>
+    <t>o__[Saprospirales]</t>
+  </si>
+  <si>
+    <t>f__Chitinophagaceae</t>
+  </si>
+  <si>
+    <t>g__Flavisolibacter</t>
+  </si>
+  <si>
+    <t>c__Flavobacteriia</t>
+  </si>
+  <si>
+    <t>o__Flavobacteriales</t>
+  </si>
+  <si>
+    <t>f__[Weeksellaceae]</t>
+  </si>
+  <si>
+    <t>g__Chryseobacterium</t>
+  </si>
+  <si>
+    <t>f__[Exiguobacteraceae]</t>
+  </si>
+  <si>
+    <t>g__Exiguobacterium</t>
+  </si>
+  <si>
+    <t>f__Planococcaceae</t>
+  </si>
+  <si>
+    <t>f__Micrococcaceae</t>
+  </si>
+  <si>
+    <t>g__Rubellimicrobium</t>
+  </si>
+  <si>
+    <t>c__[Chloracidobacteria]</t>
+  </si>
+  <si>
+    <t>o__RB41</t>
+  </si>
+  <si>
+    <t>f__Ellin6075</t>
+  </si>
+  <si>
+    <t>f__Bacillaceae</t>
+  </si>
+  <si>
+    <t>g__Bacillus</t>
+  </si>
+  <si>
+    <t>c__Deltaproteobacteria</t>
+  </si>
+  <si>
+    <t>o__Myxococcales</t>
+  </si>
+  <si>
+    <t>f__Cyclobacteriaceae</t>
+  </si>
+  <si>
+    <t>AREM.CSI.labfloor</t>
+  </si>
+  <si>
+    <t>AREM.BC12.LabFloor</t>
+  </si>
+  <si>
+    <t>AREM.BC3217floor</t>
+  </si>
+  <si>
+    <t>AREM.BC13.BathroomDr</t>
+  </si>
+  <si>
+    <t>AREM.BC15.IngElev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +422,22 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -86,6 +471,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,6 +493,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -143,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,7 +579,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,16 +790,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>42099.565300925926</v>
       </c>
@@ -409,7 +808,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42099.153738425928</v>
       </c>
@@ -420,7 +819,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42100.532534722224</v>
       </c>
@@ -431,7 +830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42102.374803240738</v>
       </c>
@@ -442,7 +841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42104.088194444441</v>
       </c>
@@ -453,7 +852,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42104.757372685184</v>
       </c>
@@ -464,7 +863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42104.111643518518</v>
       </c>
@@ -483,12 +882,1383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3.9902366549900002E-2</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.85484600595600002</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4.2808001019200001E-2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.86471186202999994</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.76824136941800003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>652</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.28196964873199998</v>
+      </c>
+      <c r="H3" s="9">
+        <v>5.5302144984399997E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.32577398394700002</v>
+      </c>
+      <c r="J3" s="10">
+        <v>6.7004346606800005E-2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2.75413598546E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>509</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.13159291096299999</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.63229916689E-2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.16760096827599999</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1.7754486819999998E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>7.1483216983800002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>636</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="12">
+        <v>6.57964554813E-3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.8471745768500001E-3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.4651547967900001E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1.5248177229400001E-3</v>
+      </c>
+      <c r="K5" s="6">
+        <v>4.9010232380200004E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>459</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6">
+        <v>7.8425130001100005E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.1950088588999999E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>8.8355204484600006E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1.1848008973599999E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1.5013866309600001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>520</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9">
+        <v>7.5082245569400005E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.6756512232799999E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>8.9055930691799998E-2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1.5598710039300001E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>7.9611743329799992E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>258</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.2816512787900002E-3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5.0891544464099999E-4</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.22958338642E-3</v>
+      </c>
+      <c r="J8" s="11">
+        <v>4.3816601233900003E-4</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3.1079659558200002E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>484</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.65308288231E-3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.4136540128899999E-3</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.16575359918E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>3.8558609085799999E-4</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3.39007363489E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>606</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="12">
+        <v>9.1266051151399994E-3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.9791156180500001E-3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8.2176073385099996E-3</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1.7701906898500001E-3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.53007554748E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>167</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="12">
+        <v>6.3143372598999997E-3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.0178308892800001E-3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5.5421072748100004E-3</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2.10319685923E-4</v>
+      </c>
+      <c r="K11" s="12">
+        <v>9.5629721717500001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>538</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="12">
+        <v>6.42046057519E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>9.6128472876699995E-4</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5.66951203975E-3</v>
+      </c>
+      <c r="J12" s="11">
+        <v>4.5569265283199999E-4</v>
+      </c>
+      <c r="K12" s="6">
+        <v>8.1285263459899995E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>643</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="12">
+        <v>3.8204393505300001E-3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.18746937083E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>9.4279526054299994E-3</v>
+      </c>
+      <c r="J13" s="11">
+        <v>3.5053280987099999E-4</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1.8169647126300001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>692</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4.5102408999299999E-3</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.2063180909999999E-3</v>
+      </c>
+      <c r="I14" s="6">
+        <v>5.8606191871600002E-3</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1.5773976444199999E-4</v>
+      </c>
+      <c r="K14" s="12">
+        <v>7.1722291288100007E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>296</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7">
+        <v>3.1041069723000001E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.94141817771E-3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1.0765702637299999E-2</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1.78771733034E-3</v>
+      </c>
+      <c r="K15" s="7">
+        <v>7.02878454624E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>327</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1.43266475645E-3</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3.3927696309400001E-4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5.7332144222200002E-4</v>
+      </c>
+      <c r="J16" s="13">
+        <v>2.62899607403E-4</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1.19537152147E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>42</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2.49389790937E-3</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2.8273080257899997E-4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.5288571792600001E-3</v>
+      </c>
+      <c r="J17" s="13">
+        <v>7.01065619742E-5</v>
+      </c>
+      <c r="K17" s="14">
+        <v>9.5629721717500001E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>253</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="14">
+        <v>4.77554918816E-4</v>
+      </c>
+      <c r="H18" s="14">
+        <v>5.6546160515699999E-5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8.2813097209800002E-4</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1.5773976444199999E-4</v>
+      </c>
+      <c r="K18" s="14">
+        <v>7.1722291288100007E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="14">
+        <v>2.3400191022E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.16862065066E-3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1.7581857561499999E-2</v>
+      </c>
+      <c r="J19" s="13">
+        <v>4.3816601233900003E-4</v>
+      </c>
+      <c r="K19" s="7">
+        <v>6.38328392464E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>495</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="14">
+        <v>5.0939191340300003E-3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>5.8431032532899995E-4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2.6755000637000001E-3</v>
+      </c>
+      <c r="J20" s="13">
+        <v>2.27846326416E-4</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.4344458257600001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>91</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="14">
+        <v>4.4041175846299997E-3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2.8273080257899997E-4</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2.6117976812299998E-3</v>
+      </c>
+      <c r="J21" s="13">
+        <v>2.10319685923E-4</v>
+      </c>
+      <c r="K21" s="14">
+        <v>9.5629721717500001E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>45</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3.0775761434799999E-3</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4.3352056395399999E-4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4.5865715377799996E-3</v>
+      </c>
+      <c r="J22" s="13">
+        <v>3.50532809871E-5</v>
+      </c>
+      <c r="K22" s="14">
+        <v>4.7814860858800003E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>332</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="7">
+        <v>7.2163854398800001E-3</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.5078976137500001E-3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1.2613071728899999E-2</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1.24439147504E-3</v>
+      </c>
+      <c r="K23" s="7">
+        <v>2.4385579038000002E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>89</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="7">
+        <v>6.1020906293100001E-3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2.8273080257899997E-4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1.33775003185E-3</v>
+      </c>
+      <c r="J24" s="13">
+        <v>5.2579921480699999E-5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>4.6858563641600003E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>434</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1.1355194736299999E-2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3.0911901081900001E-3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1.14664288444E-2</v>
+      </c>
+      <c r="J25" s="13">
+        <v>3.1547952888399998E-3</v>
+      </c>
+      <c r="K25" s="7">
+        <v>4.1598928947099998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>152</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1.43266475645E-3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2.6388208240700001E-4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>2.4537296690999998E-4</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>102</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="7">
+        <v>4.2449326116899997E-3</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1.4136540128899999E-3</v>
+      </c>
+      <c r="I27" s="7">
+        <v>8.5361192508599994E-3</v>
+      </c>
+      <c r="J27" s="13">
+        <v>9.1138530566499995E-4</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1.07105288324E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>635</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>240</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>221</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>322</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>144</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>638</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>479</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>23</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>525</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>207</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>192</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>299</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>284</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>476</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>71</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>481</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>504</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>16</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>273</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>563</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>160</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -499,7 +2269,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example.xlsx
+++ b/example.xlsx
@@ -852,7 +852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/example.xlsx
+++ b/example.xlsx
@@ -620,24 +620,24 @@
   <dimension ref="A3:W50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="64.7397959183674"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.5612244897959"/>
-    <col collapsed="false" hidden="false" max="18" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.0918367346939"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.2142857142857"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="55.0051020408163"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="29.8979591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.6938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="66.8214285714286"/>
+    <col collapsed="false" hidden="false" max="18" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="54.4030612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,9 +4166,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
